--- a/LR3/table_1_106.xlsx
+++ b/LR3/table_1_106.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ксения\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18A36987-08E8-479B-AD17-50910D1D5EE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F2D447-087E-4610-95CF-0CD12A3D3FE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
-    <t>Площадь,кв.м.</t>
-  </si>
-  <si>
     <t>Тариф</t>
   </si>
   <si>
@@ -40,21 +37,6 @@
     <t>Пени за день</t>
   </si>
   <si>
-    <t>Сумма,руб.</t>
-  </si>
-  <si>
-    <t>Срок оплаты,дней</t>
-  </si>
-  <si>
-    <t>Дата оплаты,дней</t>
-  </si>
-  <si>
-    <t>Штраф,руб.</t>
-  </si>
-  <si>
-    <t>Итого,руб.</t>
-  </si>
-  <si>
     <t>Куропаткин 1</t>
   </si>
   <si>
@@ -173,6 +155,24 @@
   </si>
   <si>
     <t>Шаймарданова</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты, дней</t>
+  </si>
+  <si>
+    <t>Дата оплаты, дней</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,6 +232,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,8 +455,8 @@
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -471,39 +474,39 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
+      <c r="J2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -511,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -521,7 +524,7 @@
         <v>116.60000000000001</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
+        <f>C3*D3</f>
         <v>8162.0000000000009</v>
       </c>
       <c r="F3" s="3">
@@ -531,39 +534,39 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H38" si="1">IF(G3&lt;=F3,0,G3-F3)</f>
+        <f t="shared" ref="H3:H38" si="0">IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J38" si="2">I3*H3</f>
+        <f t="shared" ref="J3:J38" si="1">I3*H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K38" si="3">J3+E3</f>
+        <f t="shared" ref="K3:K38" si="2">J3+E3</f>
         <v>8162.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A38" si="4">A3+1</f>
+        <f t="shared" ref="A4:A38" si="3">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="4">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="6">$A$1*1.1</f>
+        <f t="shared" ref="D4:D34" si="5">$A$1*1.1</f>
         <v>116.60000000000001</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E38" si="6">C4*D4</f>
         <v>8103.7000000000007</v>
       </c>
       <c r="F4" s="3">
@@ -574,7 +577,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -582,32 +585,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8103.7000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>8045.4000000000005</v>
       </c>
       <c r="F5" s="3">
@@ -618,7 +621,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -626,32 +629,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8045.4000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7987.1</v>
       </c>
       <c r="F6" s="3">
@@ -662,7 +665,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -670,32 +673,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7987.1</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7928.8</v>
       </c>
       <c r="F7" s="3">
@@ -706,7 +709,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -714,32 +717,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7928.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7870.5000000000009</v>
       </c>
       <c r="F8" s="3">
@@ -750,7 +753,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -758,32 +761,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7870.5000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7812.2000000000007</v>
       </c>
       <c r="F9" s="3">
@@ -794,7 +797,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -802,32 +805,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7812.2000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7753.9000000000005</v>
       </c>
       <c r="F10" s="3">
@@ -838,7 +841,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -846,32 +849,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7753.9000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7695.6</v>
       </c>
       <c r="F11" s="3">
@@ -882,7 +885,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -890,32 +893,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7695.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7637.3</v>
       </c>
       <c r="F12" s="3">
@@ -926,7 +929,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -934,32 +937,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7647.3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7579.0000000000009</v>
       </c>
       <c r="F13" s="3">
@@ -970,7 +973,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -978,32 +981,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7599.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7520.7000000000007</v>
       </c>
       <c r="F14" s="3">
@@ -1014,7 +1017,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1022,32 +1025,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7550.7000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7462.4000000000005</v>
       </c>
       <c r="F15" s="3">
@@ -1058,7 +1061,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1066,32 +1069,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7502.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7404.1</v>
       </c>
       <c r="F16" s="3">
@@ -1102,7 +1105,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1110,32 +1113,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7454.1</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7345.8</v>
       </c>
       <c r="F17" s="3">
@@ -1146,7 +1149,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1154,32 +1157,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7405.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7287.5000000000009</v>
       </c>
       <c r="F18" s="3">
@@ -1190,7 +1193,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1198,32 +1201,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7357.5000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7229.2000000000007</v>
       </c>
       <c r="F19" s="3">
@@ -1234,7 +1237,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1242,32 +1245,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7309.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7170.9000000000005</v>
       </c>
       <c r="F20" s="3">
@@ -1278,7 +1281,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1286,32 +1289,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7260.9000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7112.6</v>
       </c>
       <c r="F21" s="3">
@@ -1322,7 +1325,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1330,32 +1333,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7212.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7054.3</v>
       </c>
       <c r="F22" s="3">
@@ -1366,7 +1369,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1374,32 +1377,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7164.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6996.0000000000009</v>
       </c>
       <c r="F23" s="3">
@@ -1410,7 +1413,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1418,32 +1421,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7116.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6937.7000000000007</v>
       </c>
       <c r="F24" s="3">
@@ -1454,7 +1457,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1462,32 +1465,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7067.7000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6879.4000000000005</v>
       </c>
       <c r="F25" s="3">
@@ -1498,7 +1501,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1506,32 +1509,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7019.4000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6821.1</v>
       </c>
       <c r="F26" s="3">
@@ -1542,7 +1545,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1550,32 +1553,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6971.1</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6762.8</v>
       </c>
       <c r="F27" s="3">
@@ -1586,7 +1589,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1594,32 +1597,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6922.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6704.5000000000009</v>
       </c>
       <c r="F28" s="3">
@@ -1630,7 +1633,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1638,32 +1641,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6874.5000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6646.2000000000007</v>
       </c>
       <c r="F29" s="3">
@@ -1674,7 +1677,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1682,32 +1685,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6826.2000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6587.9000000000005</v>
       </c>
       <c r="F30" s="3">
@@ -1718,7 +1721,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1726,32 +1729,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6777.9000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6529.6</v>
       </c>
       <c r="F31" s="3">
@@ -1762,7 +1765,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1770,32 +1773,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6729.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6471.3</v>
       </c>
       <c r="F32" s="3">
@@ -1806,7 +1809,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1814,32 +1817,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6681.3</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6413.0000000000009</v>
       </c>
       <c r="F33" s="3">
@@ -1850,7 +1853,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1858,32 +1861,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6633.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116.60000000000001</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6354.7000000000007</v>
       </c>
       <c r="F34" s="3">
@@ -1894,7 +1897,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -1902,24 +1905,24 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6584.7000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -1927,7 +1930,7 @@
         <v>58.300000000000004</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3148.2000000000003</v>
       </c>
       <c r="F35" s="3">
@@ -1938,7 +1941,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -1946,24 +1949,24 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3388.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
@@ -1971,7 +1974,7 @@
         <v>58.300000000000004</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3119.05</v>
       </c>
       <c r="F36" s="3">
@@ -1982,7 +1985,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -1990,24 +1993,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3369.05</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
@@ -2015,7 +2018,7 @@
         <v>58.300000000000004</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3089.9</v>
       </c>
       <c r="F37" s="3">
@@ -2026,7 +2029,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2034,24 +2037,24 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3349.9</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
@@ -2059,7 +2062,7 @@
         <v>58.300000000000004</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3060.75</v>
       </c>
       <c r="F38" s="3">
@@ -2070,7 +2073,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2078,11 +2081,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3330.75</v>
       </c>
     </row>
@@ -2091,7 +2094,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C40" s="4">
         <f>ROUNDDOWN(SUM(K3:K38),0)</f>
@@ -2100,7 +2103,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C41" s="4">
         <f>AVERAGE(C3:C38)</f>
@@ -2109,7 +2112,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C42" s="4">
         <f>MAX(H3:H38)</f>
@@ -2118,7 +2121,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C43" s="4">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_106.xlsx
+++ b/LR3/table_1_106.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8ED1B06-AACD-41EE-8E69-20A698417A50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95878E2B-DB00-4131-855D-B86BEF84834B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,9 +160,6 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -172,7 +169,10 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
+    <t>Кузин</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,12 +529,12 @@
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D34" si="0">1.1*108</f>
-        <v>118.80000000000001</v>
+        <f>1.1*$A$1</f>
+        <v>116.60000000000001</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E38" si="1">C3*D3</f>
-        <v>8316</v>
+        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
+        <v>8162.0000000000009</v>
       </c>
       <c r="F3" s="3">
         <v>44813</v>
@@ -543,1559 +543,1594 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H38" si="2">IF(F3&gt;=G3, 0, G3-F3)</f>
+        <f t="shared" ref="H3:H38" si="1">IF(F3&gt;=G3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
         <v>10</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J38" si="3">H3*I3</f>
+        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K38" si="4">E3+J3</f>
-        <v>8316</v>
+        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
+        <v>8162.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A38" si="5">A3+1</f>
+        <f t="shared" ref="A4:A38" si="4">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C38" si="6">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" ref="D4:D34" si="6">1.1*$A$1</f>
+        <v>116.60000000000001</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>8256.6</v>
+        <f t="shared" si="0"/>
+        <v>8103.7000000000007</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F38" si="7">F3</f>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I38" si="8">I3</f>
+        <f t="shared" ref="I4:I38" si="7">I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="4"/>
-        <v>8256.6</v>
+        <f t="shared" si="3"/>
+        <v>8103.7000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>8197.2000000000007</v>
+        <f t="shared" si="0"/>
+        <v>8045.4000000000005</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F5:F38" si="8">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
+        <f t="shared" ref="G5:G38" si="9">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="4"/>
-        <v>8197.2000000000007</v>
+        <f t="shared" si="3"/>
+        <v>8045.4000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>8137.8000000000011</v>
+        <f t="shared" si="0"/>
+        <v>7987.1</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
+        <f t="shared" si="9"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="4"/>
-        <v>8137.8000000000011</v>
+        <f t="shared" si="3"/>
+        <v>7987.1</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>8078.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>7928.8</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
+        <f t="shared" si="9"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="4"/>
-        <v>8078.4000000000005</v>
+        <f t="shared" si="3"/>
+        <v>7928.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
-        <v>8019.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>7870.5000000000009</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="9"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="4"/>
-        <v>8019.0000000000009</v>
+        <f t="shared" si="3"/>
+        <v>7870.5000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>7959.6</v>
+        <f t="shared" si="0"/>
+        <v>7812.2000000000007</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" si="9"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="4"/>
-        <v>7959.6</v>
+        <f t="shared" si="3"/>
+        <v>7812.2000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
-        <v>7900.2000000000007</v>
+        <f t="shared" si="0"/>
+        <v>7753.9000000000005</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" si="9"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="4"/>
-        <v>7900.2000000000007</v>
+        <f t="shared" si="3"/>
+        <v>7753.9000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>7840.8000000000011</v>
+        <f t="shared" si="0"/>
+        <v>7695.6</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="9"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="4"/>
-        <v>7840.8000000000011</v>
+        <f t="shared" si="3"/>
+        <v>7695.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>7781.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>7637.3</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="9"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(F12&gt;=G12, 0, G12-F12)</f>
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="4"/>
-        <v>7791.4000000000005</v>
+        <f t="shared" si="3"/>
+        <v>7647.3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>7722.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>7579.0000000000009</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G13" s="3">
+        <f t="shared" si="9"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="4"/>
-        <v>7742.0000000000009</v>
+        <f t="shared" si="3"/>
+        <v>7599.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
-        <v>7662.6</v>
+        <f t="shared" si="0"/>
+        <v>7520.7000000000007</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
+        <f t="shared" si="9"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="4"/>
-        <v>7692.6</v>
+        <f t="shared" si="3"/>
+        <v>7550.7000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>7603.2000000000007</v>
+        <f t="shared" si="0"/>
+        <v>7462.4000000000005</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
+        <f t="shared" si="9"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="4"/>
-        <v>7643.2000000000007</v>
+        <f t="shared" si="3"/>
+        <v>7502.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>7543.8000000000011</v>
+        <f t="shared" si="0"/>
+        <v>7404.1</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
+        <f t="shared" si="9"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="4"/>
-        <v>7593.8000000000011</v>
+        <f t="shared" si="3"/>
+        <v>7454.1</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>7484.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>7345.8</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
+        <f t="shared" si="9"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="4"/>
-        <v>7544.4000000000005</v>
+        <f t="shared" si="3"/>
+        <v>7405.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
-        <v>7425.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>7287.5000000000009</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
+        <f t="shared" si="9"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="4"/>
-        <v>7495.0000000000009</v>
+        <f t="shared" si="3"/>
+        <v>7357.5000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>7365.6</v>
+        <f t="shared" si="0"/>
+        <v>7229.2000000000007</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
+        <f t="shared" si="9"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="4"/>
-        <v>7445.6</v>
+        <f t="shared" si="3"/>
+        <v>7309.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>7306.2000000000007</v>
+        <f t="shared" si="0"/>
+        <v>7170.9000000000005</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
+        <f t="shared" si="9"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="4"/>
-        <v>7396.2000000000007</v>
+        <f t="shared" si="3"/>
+        <v>7260.9000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>7246.8000000000011</v>
+        <f t="shared" si="0"/>
+        <v>7112.6</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
+        <f t="shared" si="9"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="4"/>
-        <v>7346.8000000000011</v>
+        <f t="shared" si="3"/>
+        <v>7212.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>7187.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>7054.3</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
+        <f t="shared" si="9"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="4"/>
-        <v>7297.4000000000005</v>
+        <f t="shared" si="3"/>
+        <v>7164.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>7128.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>6996.0000000000009</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
+        <f t="shared" si="9"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="4"/>
-        <v>7248.0000000000009</v>
+        <f t="shared" si="3"/>
+        <v>7116.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f>1.1*$A$1</f>
+        <v>116.60000000000001</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>7068.6</v>
+        <f t="shared" si="0"/>
+        <v>6937.7000000000007</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
+        <f t="shared" si="9"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="4"/>
-        <v>7198.6</v>
+        <f t="shared" si="3"/>
+        <v>7067.7000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
-        <v>7009.2000000000007</v>
+        <f t="shared" si="0"/>
+        <v>6879.4000000000005</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
+        <f t="shared" si="9"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="4"/>
-        <v>7149.2000000000007</v>
+        <f t="shared" si="3"/>
+        <v>7019.4000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="1"/>
-        <v>6949.8000000000011</v>
+        <f t="shared" si="0"/>
+        <v>6821.1</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
+        <f t="shared" si="9"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="4"/>
-        <v>7099.8000000000011</v>
+        <f t="shared" si="3"/>
+        <v>6971.1</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
-        <v>6890.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>6762.8</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
+        <f t="shared" si="9"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="4"/>
-        <v>7050.4000000000005</v>
+        <f t="shared" si="3"/>
+        <v>6922.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
-        <v>6831.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>6704.5000000000009</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
+        <f t="shared" si="9"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="4"/>
-        <v>7001.0000000000009</v>
+        <f t="shared" si="3"/>
+        <v>6874.5000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
-        <v>6771.6</v>
+        <f t="shared" si="0"/>
+        <v>6646.2000000000007</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
+        <f t="shared" si="9"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="4"/>
-        <v>6951.6</v>
+        <f t="shared" si="3"/>
+        <v>6826.2000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="1"/>
-        <v>6712.2000000000007</v>
+        <f t="shared" si="0"/>
+        <v>6587.9000000000005</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
+        <f t="shared" si="9"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="4"/>
-        <v>6902.2000000000007</v>
+        <f t="shared" si="3"/>
+        <v>6777.9000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="1"/>
-        <v>6652.8000000000011</v>
+        <f t="shared" si="0"/>
+        <v>6529.6</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
+        <f t="shared" si="9"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="4"/>
-        <v>6852.8000000000011</v>
+        <f t="shared" si="3"/>
+        <v>6729.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
-        <v>6593.4000000000005</v>
+        <f t="shared" si="0"/>
+        <v>6471.3</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
+        <f t="shared" si="9"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="4"/>
-        <v>6803.4000000000005</v>
+        <f t="shared" si="3"/>
+        <v>6681.3</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
-        <v>6534.0000000000009</v>
+        <f t="shared" si="0"/>
+        <v>6413.0000000000009</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
+        <f t="shared" si="9"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="4"/>
-        <v>6754.0000000000009</v>
+        <f t="shared" si="3"/>
+        <v>6633.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
-        <v>6474.6</v>
+        <f t="shared" si="0"/>
+        <v>6354.7000000000007</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
+        <f t="shared" si="9"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="4"/>
-        <v>6704.6</v>
+        <f t="shared" si="3"/>
+        <v>6584.7000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>0.55*108</f>
-        <v>59.400000000000006</v>
+        <f>$D$34/2</f>
+        <v>58.300000000000004</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
-        <v>3207.6000000000004</v>
+        <f t="shared" si="0"/>
+        <v>3148.2000000000003</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
+        <f t="shared" si="9"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="4"/>
-        <v>3447.6000000000004</v>
+        <f t="shared" si="3"/>
+        <v>3388.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f>0.55*108</f>
-        <v>59.400000000000006</v>
+        <f t="shared" ref="D36:D38" si="10">$D$34/2</f>
+        <v>58.300000000000004</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
-        <v>3177.9</v>
+        <f t="shared" si="0"/>
+        <v>3119.05</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
+        <f t="shared" si="9"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="4"/>
-        <v>3427.9</v>
+        <f t="shared" si="3"/>
+        <v>3369.05</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f>0.55*108</f>
-        <v>59.400000000000006</v>
+        <f t="shared" si="10"/>
+        <v>58.300000000000004</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="1"/>
-        <v>3148.2000000000003</v>
+        <f t="shared" si="0"/>
+        <v>3089.9</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
+        <f t="shared" si="9"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="4"/>
-        <v>3408.2000000000003</v>
+        <f t="shared" si="3"/>
+        <v>3349.9</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f>0.55*108</f>
-        <v>59.400000000000006</v>
+        <f t="shared" si="10"/>
+        <v>58.300000000000004</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
-        <v>3118.5000000000005</v>
+        <f t="shared" si="0"/>
+        <v>3060.75</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G38" s="3">
+        <f t="shared" si="9"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="4"/>
-        <v>3388.5000000000005</v>
+        <f t="shared" si="3"/>
+        <v>3330.75</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2103,16 +2138,16 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2">
         <f>INT(SUM(K3:K38))</f>
-        <v>253081</v>
+        <v>248465</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="4">
         <f>AVERAGE(C3:C38)</f>
@@ -2121,7 +2156,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="4">
         <f>MAX(H3:H38)</f>
